--- a/MVandebroek/TAKEN/TASK1/1. FILES/solutions_taak1.xlsx
+++ b/MVandebroek/TAKEN/TASK1/1. FILES/solutions_taak1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,22 +401,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.3929</v>
+        <v>0.84143</v>
       </c>
       <c r="C2">
-        <v>0.82942</v>
+        <v>0.06779</v>
       </c>
       <c r="D2">
-        <v>0.83418</v>
+        <v>0.59297</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.93359</v>
+        <v>1.6699</v>
       </c>
       <c r="C3">
-        <v>0.69489</v>
+        <v>0.62208</v>
       </c>
       <c r="D3">
-        <v>0.52067</v>
+        <v>0.8920400000000001</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -451,41 +451,41 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.35693</v>
+        <v>1.0695</v>
       </c>
       <c r="C4">
-        <v>0.86061</v>
+        <v>0.67005</v>
       </c>
       <c r="D4">
-        <v>0.58695</v>
+        <v>0.82267</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q0328135_previewuser</t>
+          <t>q0762379</t>
         </is>
       </c>
       <c r="B5">
-        <v>1.7906</v>
+        <v>0.9403899999999999</v>
       </c>
       <c r="C5">
-        <v>0.71782</v>
+        <v>0.71472</v>
       </c>
       <c r="D5">
-        <v>0.68237</v>
+        <v>0.3838</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -497,23 +497,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>q0762379</t>
+          <t>q1371623</t>
         </is>
       </c>
       <c r="B6">
-        <v>1.43041</v>
+        <v>2.26283</v>
       </c>
       <c r="C6">
-        <v>0.24415</v>
+        <v>0.5778</v>
       </c>
       <c r="D6">
-        <v>0.63053</v>
+        <v>0.6782899999999999</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -522,51 +522,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>q1371623</t>
+          <t>q1411379</t>
         </is>
       </c>
       <c r="B7">
-        <v>1.43264</v>
+        <v>1.24665</v>
       </c>
       <c r="C7">
-        <v>0.32398</v>
+        <v>0.98333</v>
       </c>
       <c r="D7">
-        <v>0.84935</v>
+        <v>0.63576</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>q1411379</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>1.87653</v>
-      </c>
-      <c r="C8">
-        <v>0.29122</v>
-      </c>
-      <c r="D8">
-        <v>0.92827</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
